--- a/data/7765.xlsx
+++ b/data/7765.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43347,6 +43347,41 @@
         <v>125900</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7765</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>RAPID</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>208800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7765.xlsx
+++ b/data/7765.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43382,6 +43382,41 @@
         <v>208800</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7765</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>RAPID</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>202600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7765.xlsx
+++ b/data/7765.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43417,6 +43417,41 @@
         <v>202600</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7765</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>RAPID</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>75300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7765.xlsx
+++ b/data/7765.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43452,6 +43452,41 @@
         <v>75300</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7765</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>RAPID</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>69400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7765.xlsx
+++ b/data/7765.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43487,6 +43487,41 @@
         <v>69400</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7765</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>RAPID</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>69800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7765.xlsx
+++ b/data/7765.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43522,6 +43522,41 @@
         <v>69800</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7765</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>RAPID</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7765.xlsx
+++ b/data/7765.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43557,6 +43557,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7765</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>RAPID</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>120000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7765.xlsx
+++ b/data/7765.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43592,6 +43592,41 @@
         <v>120000</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7765</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>RAPID</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>4500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7765.xlsx
+++ b/data/7765.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43627,6 +43627,41 @@
         <v>4500</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>7765</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>RAPID</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>9800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7765.xlsx
+++ b/data/7765.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43662,6 +43662,41 @@
         <v>9800</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>7765</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>RAPID</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>50000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7765.xlsx
+++ b/data/7765.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43697,6 +43697,41 @@
         <v>50000</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>7765</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>RAPID</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>166000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7765.xlsx
+++ b/data/7765.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43732,6 +43732,41 @@
         <v>166000</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>7765</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>RAPID</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>245000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7765.xlsx
+++ b/data/7765.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43767,6 +43767,76 @@
         <v>245000</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>7765</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>RAPID</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>245300</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>7765</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>RAPID</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>6</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>227600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7765.xlsx
+++ b/data/7765.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43837,6 +43837,76 @@
         <v>227600</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>7765</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>RAPID</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>180500</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>7765</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>RAPID</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>163600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7765.xlsx
+++ b/data/7765.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43907,6 +43907,41 @@
         <v>163600</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>7765</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>RAPID</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>219100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7765.xlsx
+++ b/data/7765.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43942,6 +43942,41 @@
         <v>219100</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>7765</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>RAPID</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>215000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7765.xlsx
+++ b/data/7765.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43977,6 +43977,41 @@
         <v>215000</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>7765</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>RAPID</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>198200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7765.xlsx
+++ b/data/7765.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44012,6 +44012,41 @@
         <v>198200</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>7765</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>RAPID</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>143900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7765.xlsx
+++ b/data/7765.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44047,6 +44047,76 @@
         <v>143900</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>7765</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>RAPID</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>105700</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>7765</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>RAPID</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>246700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7765.xlsx
+++ b/data/7765.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44117,6 +44117,41 @@
         <v>246700</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>7765</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>RAPID</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>201300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7765.xlsx
+++ b/data/7765.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44152,6 +44152,41 @@
         <v>201300</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>7765</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>RAPID</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>98200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7765.xlsx
+++ b/data/7765.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2101"/>
+  <dimension ref="A1:I2102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74287,6 +74287,41 @@
         <v>98200</v>
       </c>
     </row>
+    <row r="2102">
+      <c r="A2102" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2102" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2102" t="inlineStr">
+        <is>
+          <t>7765</t>
+        </is>
+      </c>
+      <c r="D2102" t="inlineStr">
+        <is>
+          <t>RAPID</t>
+        </is>
+      </c>
+      <c r="E2102" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="F2102" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="G2102" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="H2102" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="I2102" t="n">
+        <v>226900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7765.xlsx
+++ b/data/7765.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2102"/>
+  <dimension ref="A1:I2103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74322,6 +74322,41 @@
         <v>226900</v>
       </c>
     </row>
+    <row r="2103">
+      <c r="A2103" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2103" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2103" t="inlineStr">
+        <is>
+          <t>7765</t>
+        </is>
+      </c>
+      <c r="D2103" t="inlineStr">
+        <is>
+          <t>RAPID</t>
+        </is>
+      </c>
+      <c r="E2103" t="n">
+        <v>6</v>
+      </c>
+      <c r="F2103" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="G2103" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="H2103" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="I2103" t="n">
+        <v>399100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7765.xlsx
+++ b/data/7765.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2103"/>
+  <dimension ref="A1:I2104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74357,6 +74357,41 @@
         <v>399100</v>
       </c>
     </row>
+    <row r="2104">
+      <c r="A2104" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2104" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2104" t="inlineStr">
+        <is>
+          <t>7765</t>
+        </is>
+      </c>
+      <c r="D2104" t="inlineStr">
+        <is>
+          <t>RAPID</t>
+        </is>
+      </c>
+      <c r="E2104" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="F2104" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="G2104" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="H2104" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="I2104" t="n">
+        <v>108000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7765.xlsx
+++ b/data/7765.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2104"/>
+  <dimension ref="A1:I2105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74392,6 +74392,41 @@
         <v>108000</v>
       </c>
     </row>
+    <row r="2105">
+      <c r="A2105" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2105" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2105" t="inlineStr">
+        <is>
+          <t>7765</t>
+        </is>
+      </c>
+      <c r="D2105" t="inlineStr">
+        <is>
+          <t>RAPID</t>
+        </is>
+      </c>
+      <c r="E2105" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="F2105" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="G2105" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="H2105" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="I2105" t="n">
+        <v>546900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7765.xlsx
+++ b/data/7765.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2105"/>
+  <dimension ref="A1:I2106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74427,6 +74427,41 @@
         <v>546900</v>
       </c>
     </row>
+    <row r="2106">
+      <c r="A2106" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2106" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2106" t="inlineStr">
+        <is>
+          <t>7765</t>
+        </is>
+      </c>
+      <c r="D2106" t="inlineStr">
+        <is>
+          <t>RAPID</t>
+        </is>
+      </c>
+      <c r="E2106" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="F2106" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="G2106" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="H2106" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="I2106" t="n">
+        <v>174100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7765.xlsx
+++ b/data/7765.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2106"/>
+  <dimension ref="A1:I2107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74462,6 +74462,41 @@
         <v>174100</v>
       </c>
     </row>
+    <row r="2107">
+      <c r="A2107" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2107" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2107" t="inlineStr">
+        <is>
+          <t>7765</t>
+        </is>
+      </c>
+      <c r="D2107" t="inlineStr">
+        <is>
+          <t>RAPID</t>
+        </is>
+      </c>
+      <c r="E2107" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="F2107" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="G2107" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="H2107" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="I2107" t="n">
+        <v>248600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7765.xlsx
+++ b/data/7765.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2107"/>
+  <dimension ref="A1:I2108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74497,6 +74497,41 @@
         <v>248600</v>
       </c>
     </row>
+    <row r="2108">
+      <c r="A2108" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2108" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2108" t="inlineStr">
+        <is>
+          <t>7765</t>
+        </is>
+      </c>
+      <c r="D2108" t="inlineStr">
+        <is>
+          <t>RAPID</t>
+        </is>
+      </c>
+      <c r="E2108" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="F2108" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="G2108" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="H2108" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="I2108" t="n">
+        <v>491600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7765.xlsx
+++ b/data/7765.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2108"/>
+  <dimension ref="A1:I2109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74532,6 +74532,41 @@
         <v>491600</v>
       </c>
     </row>
+    <row r="2109">
+      <c r="A2109" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2109" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2109" t="inlineStr">
+        <is>
+          <t>7765</t>
+        </is>
+      </c>
+      <c r="D2109" t="inlineStr">
+        <is>
+          <t>RAPID</t>
+        </is>
+      </c>
+      <c r="E2109" t="n">
+        <v>6</v>
+      </c>
+      <c r="F2109" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="G2109" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="H2109" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="I2109" t="n">
+        <v>482700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7765.xlsx
+++ b/data/7765.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2109"/>
+  <dimension ref="A1:I2110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74567,6 +74567,41 @@
         <v>482700</v>
       </c>
     </row>
+    <row r="2110">
+      <c r="A2110" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2110" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2110" t="inlineStr">
+        <is>
+          <t>7765</t>
+        </is>
+      </c>
+      <c r="D2110" t="inlineStr">
+        <is>
+          <t>RAPID</t>
+        </is>
+      </c>
+      <c r="E2110" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="F2110" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="G2110" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="H2110" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="I2110" t="n">
+        <v>388800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7765.xlsx
+++ b/data/7765.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2110"/>
+  <dimension ref="A1:I2111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74602,6 +74602,41 @@
         <v>388800</v>
       </c>
     </row>
+    <row r="2111">
+      <c r="A2111" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2111" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2111" t="inlineStr">
+        <is>
+          <t>7765</t>
+        </is>
+      </c>
+      <c r="D2111" t="inlineStr">
+        <is>
+          <t>RAPID</t>
+        </is>
+      </c>
+      <c r="E2111" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="F2111" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="G2111" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="H2111" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="I2111" t="n">
+        <v>673200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7765.xlsx
+++ b/data/7765.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2111"/>
+  <dimension ref="A1:I2112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74637,6 +74637,41 @@
         <v>673200</v>
       </c>
     </row>
+    <row r="2112">
+      <c r="A2112" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2112" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2112" t="inlineStr">
+        <is>
+          <t>7765</t>
+        </is>
+      </c>
+      <c r="D2112" t="inlineStr">
+        <is>
+          <t>RAPID</t>
+        </is>
+      </c>
+      <c r="E2112" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="F2112" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="G2112" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="H2112" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="I2112" t="n">
+        <v>600600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7765.xlsx
+++ b/data/7765.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2112"/>
+  <dimension ref="A1:I2113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74672,6 +74672,41 @@
         <v>600600</v>
       </c>
     </row>
+    <row r="2113">
+      <c r="A2113" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2113" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2113" t="inlineStr">
+        <is>
+          <t>7765</t>
+        </is>
+      </c>
+      <c r="D2113" t="inlineStr">
+        <is>
+          <t>RAPID</t>
+        </is>
+      </c>
+      <c r="E2113" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="F2113" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="G2113" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="H2113" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="I2113" t="n">
+        <v>354700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7765.xlsx
+++ b/data/7765.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2113"/>
+  <dimension ref="A1:I2114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74707,6 +74707,41 @@
         <v>354700</v>
       </c>
     </row>
+    <row r="2114">
+      <c r="A2114" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2114" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2114" t="inlineStr">
+        <is>
+          <t>7765</t>
+        </is>
+      </c>
+      <c r="D2114" t="inlineStr">
+        <is>
+          <t>RAPID</t>
+        </is>
+      </c>
+      <c r="E2114" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="F2114" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="G2114" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="H2114" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="I2114" t="n">
+        <v>399700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7765.xlsx
+++ b/data/7765.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2114"/>
+  <dimension ref="A1:I2115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74742,6 +74742,41 @@
         <v>399700</v>
       </c>
     </row>
+    <row r="2115">
+      <c r="A2115" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2115" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2115" t="inlineStr">
+        <is>
+          <t>7765</t>
+        </is>
+      </c>
+      <c r="D2115" t="inlineStr">
+        <is>
+          <t>RAPID</t>
+        </is>
+      </c>
+      <c r="E2115" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="F2115" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="G2115" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="H2115" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="I2115" t="n">
+        <v>399400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7765.xlsx
+++ b/data/7765.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2115"/>
+  <dimension ref="A1:I2116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74777,6 +74777,41 @@
         <v>399400</v>
       </c>
     </row>
+    <row r="2116">
+      <c r="A2116" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2116" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2116" t="inlineStr">
+        <is>
+          <t>7765</t>
+        </is>
+      </c>
+      <c r="D2116" t="inlineStr">
+        <is>
+          <t>RAPID</t>
+        </is>
+      </c>
+      <c r="E2116" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="F2116" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="G2116" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="H2116" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="I2116" t="n">
+        <v>159200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
